--- a/data/trans_bre/P14_2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P14_2-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,75%</t>
+          <t>32,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>4,07%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 2,96</t>
+          <t>-3,47; 6,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 5,59</t>
+          <t>-7,11; 9,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-50,98; 74,08</t>
+          <t>-46,66; 224,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,32; 50,42</t>
+          <t>-33,71; 75,31</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,2%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>20,8%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 3,24</t>
+          <t>-4,65; 5,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 7,31</t>
+          <t>-5,9; 11,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-57,77; 114,84</t>
+          <t>-59,28; 210,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,58; 71,05</t>
+          <t>-31,78; 114,14</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-54,86%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>12,47%</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 2,88</t>
+          <t>-5,6; 9,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 12,89</t>
+          <t>-18,29; 17,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-67,82; 347,0</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,69%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>11,54%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,05</t>
+          <t>-2,17; 4,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 5,0</t>
+          <t>-4,21; 7,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,66; 53,29</t>
+          <t>-33,86; 136,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 45,92</t>
+          <t>-21,06; 58,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P14_2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P14_2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>32,91%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,07%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.337872859937471</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.4038489610166979</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.2373131836821123</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.02339550017332995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,47; 6,62</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,11; 9,13</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-46,66; 224,78</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-33,71; 75,31</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.137041271231571</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.301870413432218</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.5048994648695099</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.3508912619534901</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.124429727771236</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.886535695181474</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>2.041164729094879</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.7118803183645099</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,14</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,7%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>20,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,65; 5,17</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,9; 11,96</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-59,28; 210,82</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-31,78; 114,14</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.8861986792527414</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.90829735840579</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.1836774216843714</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.1951775389494866</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,43</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>13,37%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>12,47%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.639309821913714</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.425791240691455</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.5332607180919799</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.3395496608030527</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,6; 9,55</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-18,29; 17,64</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.740537316290169</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.46085445430557</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>2.629853500408608</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.076408881327185</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,117 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,81</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>21,06%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11,54%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.3916330256325959</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.02006150727088</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.1375631955510192</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1851155217736001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,17; 4,57</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,21; 7,11</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-33,86; 136,14</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-21,06; 58,48</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.890019769484372</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-15.35312142229679</v>
+      </c>
+      <c r="E11" s="6" t="inlineStr"/>
+      <c r="F11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.364844587086261</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>17.59984119230012</v>
+      </c>
+      <c r="E12" s="6" t="inlineStr"/>
+      <c r="F12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.003668522115731</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.639848218970774</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.20026908339114</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.1050834647961219</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.081596556890533</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.146605583212367</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.3268717396599977</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2261770800232558</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.38719113266302</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.079003410670833</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.306694804917934</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.5609845874383662</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -817,13 +834,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
